--- a/Short_Stories/short_story_repository_v01.xlsx
+++ b/Short_Stories/short_story_repository_v01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majic\Documents\GitHub\slowcore-cover-band.github.io\Short Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majic\Documents\GitHub\slowcore-cover-band.github.io\Short_Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A6010E0-AEC2-4198-BE01-B1CDA2DCA1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F4A9F8-BA18-439D-9527-ADDF4E7DC3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7B79BB42-3FD1-4B16-A9A5-3253B6901DA9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="153">
   <si>
     <t>Author</t>
   </si>
@@ -530,6 +530,24 @@
   </si>
   <si>
     <t>Sourcing</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>https://www.esquire.com/entertainment/books/a23504/nirvana-adam-johnson/</t>
+  </si>
+  <si>
+    <t>Hurricanes Anonymous</t>
+  </si>
+  <si>
+    <t>https://engl250environarratives.files.wordpress.com/2012/12/johnson-hurricanes-anonymous.pdf</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1018,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1066,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41E3DE7-BA80-4DC7-828E-C7470A42E399}">
-  <dimension ref="C1:N46"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1087,13 +1105,13 @@
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="3:14" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="10.5" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1128,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="3:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -1120,13 +1138,13 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="3:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1173,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="3:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1168,10 +1186,13 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="3:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
       <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1220,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
       <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1252,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" ref="A11:A48" si="1">A10+1</f>
+        <v>3</v>
+      </c>
       <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1281,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C12" s="14" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1310,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1339,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
       </c>
@@ -1327,7 +1368,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +1397,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
       </c>
@@ -1380,7 +1429,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="C17" s="14" t="s">
         <v>37</v>
       </c>
@@ -1405,7 +1458,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1430,7 +1487,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="C19" s="14" t="s">
         <v>32</v>
       </c>
@@ -1455,7 +1516,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="C20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1545,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1574,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="C22" s="14" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1603,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1555,7 +1632,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="C24" s="14" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1661,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="C25" s="14" t="s">
         <v>44</v>
       </c>
@@ -1605,7 +1690,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="C26" s="14" t="s">
         <v>44</v>
       </c>
@@ -1630,7 +1719,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="C27" s="14" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1748,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="C28" s="14" t="s">
         <v>48</v>
       </c>
@@ -1669,7 +1766,7 @@
         <v>36</v>
       </c>
       <c r="I28" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(K28&lt;&gt;"","","NO")</f>
         <v/>
       </c>
       <c r="J28" s="19"/>
@@ -1680,7 +1777,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="C29" s="14" t="s">
         <v>52</v>
       </c>
@@ -1705,7 +1806,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="C30" s="14" t="s">
         <v>52</v>
       </c>
@@ -1730,7 +1835,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="C31" s="14" t="s">
         <v>56</v>
       </c>
@@ -1755,7 +1864,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="C32" s="14" t="s">
         <v>60</v>
       </c>
@@ -1780,7 +1893,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="C33" s="14" t="s">
         <v>60</v>
       </c>
@@ -1805,7 +1922,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="C34" s="14" t="s">
         <v>64</v>
       </c>
@@ -1830,7 +1951,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="C35" s="14" t="s">
         <v>64</v>
       </c>
@@ -1855,7 +1980,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
       <c r="C36" s="14" t="s">
         <v>68</v>
       </c>
@@ -1880,7 +2009,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
       <c r="C37" s="14" t="s">
         <v>68</v>
       </c>
@@ -1905,7 +2038,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="C38" s="14" t="s">
         <v>68</v>
       </c>
@@ -1930,7 +2067,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="C39" s="14" t="s">
         <v>74</v>
       </c>
@@ -1955,7 +2096,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="C40" s="14" t="s">
         <v>74</v>
       </c>
@@ -1980,7 +2125,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
       <c r="C41" s="14" t="s">
         <v>78</v>
       </c>
@@ -2005,7 +2154,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
       <c r="C42" s="14" t="s">
         <v>78</v>
       </c>
@@ -2030,7 +2183,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="C43" s="14" t="s">
         <v>82</v>
       </c>
@@ -2055,7 +2212,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="C44" s="14" t="s">
         <v>135</v>
       </c>
@@ -2080,7 +2241,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
       <c r="C45" s="14" t="s">
         <v>86</v>
       </c>
@@ -2105,7 +2270,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
       <c r="C46" s="14" t="s">
         <v>92</v>
       </c>
@@ -2127,6 +2296,64 @@
         <v>131</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="17" t="str">
+        <f t="shared" ref="I47" si="2">IF(K47&lt;&gt;"","","NO")</f>
+        <v/>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="17" t="str">
+        <f t="shared" ref="I48" si="3">IF(K48&lt;&gt;"","","NO")</f>
+        <v/>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>96</v>
       </c>
     </row>
